--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4052,28 +4052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5152.036353610616</v>
+        <v>5631.571399601343</v>
       </c>
       <c r="AB2" t="n">
-        <v>7049.243430812919</v>
+        <v>7705.364436330611</v>
       </c>
       <c r="AC2" t="n">
-        <v>6376.47353145116</v>
+        <v>6969.975269073833</v>
       </c>
       <c r="AD2" t="n">
-        <v>5152036.353610616</v>
+        <v>5631571.399601343</v>
       </c>
       <c r="AE2" t="n">
-        <v>7049243.430812919</v>
+        <v>7705364.436330611</v>
       </c>
       <c r="AF2" t="n">
         <v>1.660063870108942e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>95</v>
+        <v>94.55078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>6376473.53145116</v>
+        <v>6969975.269073834</v>
       </c>
     </row>
     <row r="3">
@@ -4158,28 +4158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2522.403264081272</v>
+        <v>2825.779092624509</v>
       </c>
       <c r="AB3" t="n">
-        <v>3451.263426494415</v>
+        <v>3866.355619104256</v>
       </c>
       <c r="AC3" t="n">
-        <v>3121.879688948299</v>
+        <v>3497.356065280993</v>
       </c>
       <c r="AD3" t="n">
-        <v>2522403.264081271</v>
+        <v>2825779.092624509</v>
       </c>
       <c r="AE3" t="n">
-        <v>3451263.426494415</v>
+        <v>3866355.619104256</v>
       </c>
       <c r="AF3" t="n">
         <v>2.624135234698786e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>60</v>
+        <v>59.81119791666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3121879.688948299</v>
+        <v>3497356.065280993</v>
       </c>
     </row>
     <row r="4">
@@ -4264,28 +4264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2069.336686927924</v>
+        <v>2333.491110582066</v>
       </c>
       <c r="AB4" t="n">
-        <v>2831.357747746298</v>
+        <v>3192.785483860775</v>
       </c>
       <c r="AC4" t="n">
-        <v>2561.136938136948</v>
+        <v>2888.070518383553</v>
       </c>
       <c r="AD4" t="n">
-        <v>2069336.686927924</v>
+        <v>2333491.110582066</v>
       </c>
       <c r="AE4" t="n">
-        <v>2831357.747746298</v>
+        <v>3192785.483860775</v>
       </c>
       <c r="AF4" t="n">
         <v>2.99419013458511e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>2561136.938136948</v>
+        <v>2888070.518383553</v>
       </c>
     </row>
     <row r="5">
@@ -4370,28 +4370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1878.078873088225</v>
+        <v>2122.690419620449</v>
       </c>
       <c r="AB5" t="n">
-        <v>2569.670369151578</v>
+        <v>2904.358678616773</v>
       </c>
       <c r="AC5" t="n">
-        <v>2324.424635674765</v>
+        <v>2627.170762622595</v>
       </c>
       <c r="AD5" t="n">
-        <v>1878078.873088225</v>
+        <v>2122690.419620449</v>
       </c>
       <c r="AE5" t="n">
-        <v>2569670.369151578</v>
+        <v>2904358.678616773</v>
       </c>
       <c r="AF5" t="n">
         <v>3.189222326121289e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.21223958333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2324424.635674765</v>
+        <v>2627170.762622595</v>
       </c>
     </row>
     <row r="6">
@@ -4476,28 +4476,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1762.060748636405</v>
+        <v>1996.88377389828</v>
       </c>
       <c r="AB6" t="n">
-        <v>2410.929252918183</v>
+        <v>2732.224475742206</v>
       </c>
       <c r="AC6" t="n">
-        <v>2180.833548780129</v>
+        <v>2471.464806478506</v>
       </c>
       <c r="AD6" t="n">
-        <v>1762060.748636405</v>
+        <v>1996883.77389828</v>
       </c>
       <c r="AE6" t="n">
-        <v>2410929.252918183</v>
+        <v>2732224.475742206</v>
       </c>
       <c r="AF6" t="n">
         <v>3.314341865561681e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.35677083333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2180833.548780129</v>
+        <v>2471464.806478505</v>
       </c>
     </row>
     <row r="7">
@@ -4582,28 +4582,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1688.508574287912</v>
+        <v>1913.57724369822</v>
       </c>
       <c r="AB7" t="n">
-        <v>2310.291923081656</v>
+        <v>2618.240805897756</v>
       </c>
       <c r="AC7" t="n">
-        <v>2089.800904457821</v>
+        <v>2368.359578106924</v>
       </c>
       <c r="AD7" t="n">
-        <v>1688508.574287912</v>
+        <v>1913577.24369822</v>
       </c>
       <c r="AE7" t="n">
-        <v>2310291.923081656</v>
+        <v>2618240.805897756</v>
       </c>
       <c r="AF7" t="n">
         <v>3.397272735633926e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>47</v>
+        <v>46.19791666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2089800.904457821</v>
+        <v>2368359.578106924</v>
       </c>
     </row>
     <row r="8">
@@ -4688,28 +4688,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1628.055862106167</v>
+        <v>1853.090366097693</v>
       </c>
       <c r="AB8" t="n">
-        <v>2227.577855289156</v>
+        <v>2535.479991472009</v>
       </c>
       <c r="AC8" t="n">
-        <v>2014.980951205514</v>
+        <v>2293.497339654438</v>
       </c>
       <c r="AD8" t="n">
-        <v>1628055.862106167</v>
+        <v>1853090.366097693</v>
       </c>
       <c r="AE8" t="n">
-        <v>2227577.855289156</v>
+        <v>2535479.991472009</v>
       </c>
       <c r="AF8" t="n">
         <v>3.461640591184186e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.33854166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>2014980.951205514</v>
+        <v>2293497.339654438</v>
       </c>
     </row>
     <row r="9">
@@ -4794,28 +4794,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1557.037032692138</v>
+        <v>1782.037371264883</v>
       </c>
       <c r="AB9" t="n">
-        <v>2130.406759755253</v>
+        <v>2438.262149304858</v>
       </c>
       <c r="AC9" t="n">
-        <v>1927.083728648878</v>
+        <v>2205.557831897621</v>
       </c>
       <c r="AD9" t="n">
-        <v>1557037.032692138</v>
+        <v>1782037.371264883</v>
       </c>
       <c r="AE9" t="n">
-        <v>2130406.759755253</v>
+        <v>2438262.149304858</v>
       </c>
       <c r="AF9" t="n">
         <v>3.537580196046852e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.36848958333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1927083.728648878</v>
+        <v>2205557.831897621</v>
       </c>
     </row>
     <row r="10">
@@ -4900,28 +4900,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1547.29899290979</v>
+        <v>1772.299331482535</v>
       </c>
       <c r="AB10" t="n">
-        <v>2117.08274411305</v>
+        <v>2424.938133662655</v>
       </c>
       <c r="AC10" t="n">
-        <v>1915.031338359193</v>
+        <v>2193.505441607936</v>
       </c>
       <c r="AD10" t="n">
-        <v>1547298.99290979</v>
+        <v>1772299.331482535</v>
       </c>
       <c r="AE10" t="n">
-        <v>2117082.74411305</v>
+        <v>2424938.133662655</v>
       </c>
       <c r="AF10" t="n">
         <v>3.536856961714827e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1915031.338359193</v>
+        <v>2193505.441607936</v>
       </c>
     </row>
     <row r="11">
@@ -5006,28 +5006,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1503.571810484539</v>
+        <v>1728.63946886499</v>
       </c>
       <c r="AB11" t="n">
-        <v>2057.253284011684</v>
+        <v>2365.20078349213</v>
       </c>
       <c r="AC11" t="n">
-        <v>1860.911917958726</v>
+        <v>2139.469340295789</v>
       </c>
       <c r="AD11" t="n">
-        <v>1503571.810484539</v>
+        <v>1728639.46886499</v>
       </c>
       <c r="AE11" t="n">
-        <v>2057253.284011684</v>
+        <v>2365200.78349213</v>
       </c>
       <c r="AF11" t="n">
         <v>3.572054365873395e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.93880208333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1860911.917958726</v>
+        <v>2139469.340295789</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1473.434609539026</v>
+        <v>1698.502267919477</v>
       </c>
       <c r="AB12" t="n">
-        <v>2016.018236118563</v>
+        <v>2323.965735599008</v>
       </c>
       <c r="AC12" t="n">
-        <v>1823.612285162772</v>
+        <v>2102.169707499834</v>
       </c>
       <c r="AD12" t="n">
-        <v>1473434.609539026</v>
+        <v>1698502.267919477</v>
       </c>
       <c r="AE12" t="n">
-        <v>2016018.236118563</v>
+        <v>2323965.735599008</v>
       </c>
       <c r="AF12" t="n">
         <v>3.597367567494284e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.6328125</v>
       </c>
       <c r="AH12" t="n">
-        <v>1823612.285162772</v>
+        <v>2102169.707499834</v>
       </c>
     </row>
     <row r="13">
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1445.073389841954</v>
+        <v>1660.319372563132</v>
       </c>
       <c r="AB13" t="n">
-        <v>1977.213164120321</v>
+        <v>2271.722213662002</v>
       </c>
       <c r="AC13" t="n">
-        <v>1788.510714772782</v>
+        <v>2054.912233972252</v>
       </c>
       <c r="AD13" t="n">
-        <v>1445073.389841954</v>
+        <v>1660319.372563133</v>
       </c>
       <c r="AE13" t="n">
-        <v>1977213.164120321</v>
+        <v>2271722.213662002</v>
       </c>
       <c r="AF13" t="n">
         <v>3.617618128790995e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>43.38541666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1788510.714772782</v>
+        <v>2054912.233972252</v>
       </c>
     </row>
     <row r="14">
@@ -5324,28 +5324,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1431.057940647524</v>
+        <v>1646.303923368703</v>
       </c>
       <c r="AB14" t="n">
-        <v>1958.036608214523</v>
+        <v>2252.545657756204</v>
       </c>
       <c r="AC14" t="n">
-        <v>1771.164342448168</v>
+        <v>2037.565861647638</v>
       </c>
       <c r="AD14" t="n">
-        <v>1431057.940647525</v>
+        <v>1646303.923368703</v>
       </c>
       <c r="AE14" t="n">
-        <v>1958036.608214523</v>
+        <v>2252545.657756204</v>
       </c>
       <c r="AF14" t="n">
         <v>3.629189878103401e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>44</v>
+        <v>43.24869791666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>1771164.342448168</v>
+        <v>2037565.861647638</v>
       </c>
     </row>
     <row r="15">
@@ -5430,28 +5430,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1435.851262545088</v>
+        <v>1651.097245266267</v>
       </c>
       <c r="AB15" t="n">
-        <v>1964.595042701207</v>
+        <v>2259.104092242889</v>
       </c>
       <c r="AC15" t="n">
-        <v>1777.096849152264</v>
+        <v>2043.498368351733</v>
       </c>
       <c r="AD15" t="n">
-        <v>1435851.262545088</v>
+        <v>1651097.245266267</v>
       </c>
       <c r="AE15" t="n">
-        <v>1964595.042701207</v>
+        <v>2259104.092242889</v>
       </c>
       <c r="AF15" t="n">
         <v>3.627502331328675e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>44</v>
+        <v>43.26822916666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>1777096.849152263</v>
+        <v>2043498.368351734</v>
       </c>
     </row>
   </sheetData>
@@ -5727,28 +5727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3652.325205802101</v>
+        <v>4049.159390118972</v>
       </c>
       <c r="AB2" t="n">
-        <v>4997.272475794872</v>
+        <v>5540.238513865869</v>
       </c>
       <c r="AC2" t="n">
-        <v>4520.33980442079</v>
+        <v>5011.485925875892</v>
       </c>
       <c r="AD2" t="n">
-        <v>3652325.205802101</v>
+        <v>4049159.390118972</v>
       </c>
       <c r="AE2" t="n">
-        <v>4997272.475794871</v>
+        <v>5540238.513865869</v>
       </c>
       <c r="AF2" t="n">
         <v>2.157751772652175e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>80</v>
+        <v>79.58333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4520339.80442079</v>
+        <v>5011485.925875892</v>
       </c>
     </row>
     <row r="3">
@@ -5833,28 +5833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2076.57794614871</v>
+        <v>2347.531837125255</v>
       </c>
       <c r="AB3" t="n">
-        <v>2841.265558073988</v>
+        <v>3211.996625350305</v>
       </c>
       <c r="AC3" t="n">
-        <v>2570.099160952662</v>
+        <v>2905.448175492328</v>
       </c>
       <c r="AD3" t="n">
-        <v>2076577.94614871</v>
+        <v>2347531.837125255</v>
       </c>
       <c r="AE3" t="n">
-        <v>2841265.558073988</v>
+        <v>3211996.625350305</v>
       </c>
       <c r="AF3" t="n">
         <v>3.102361686816899e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.35807291666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2570099.160952662</v>
+        <v>2905448.175492328</v>
       </c>
     </row>
     <row r="4">
@@ -5939,28 +5939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1751.952337286205</v>
+        <v>2003.578284351455</v>
       </c>
       <c r="AB4" t="n">
-        <v>2397.098478557204</v>
+        <v>2741.384200285197</v>
       </c>
       <c r="AC4" t="n">
-        <v>2168.32276411255</v>
+        <v>2479.750339766867</v>
       </c>
       <c r="AD4" t="n">
-        <v>1751952.337286205</v>
+        <v>2003578.284351455</v>
       </c>
       <c r="AE4" t="n">
-        <v>2397098.478557204</v>
+        <v>2741384.200285197</v>
       </c>
       <c r="AF4" t="n">
         <v>3.453985539255206e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.72005208333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2168322.764112549</v>
+        <v>2479750.339766867</v>
       </c>
     </row>
     <row r="5">
@@ -6045,28 +6045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1608.843524952698</v>
+        <v>1841.075219328807</v>
       </c>
       <c r="AB5" t="n">
-        <v>2201.290688007285</v>
+        <v>2519.040337591954</v>
       </c>
       <c r="AC5" t="n">
-        <v>1991.202594274754</v>
+        <v>2278.626663267496</v>
       </c>
       <c r="AD5" t="n">
-        <v>1608843.524952698</v>
+        <v>1841075.219328807</v>
       </c>
       <c r="AE5" t="n">
-        <v>2201290.688007285</v>
+        <v>2519040.337591954</v>
       </c>
       <c r="AF5" t="n">
         <v>3.641008278474081e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.16796875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1991202.594274754</v>
+        <v>2278626.663267496</v>
       </c>
     </row>
     <row r="6">
@@ -6151,28 +6151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1517.696184186887</v>
+        <v>1749.96103295192</v>
       </c>
       <c r="AB6" t="n">
-        <v>2076.578875234626</v>
+        <v>2394.373888116888</v>
       </c>
       <c r="AC6" t="n">
-        <v>1878.393101878989</v>
+        <v>2165.85820475987</v>
       </c>
       <c r="AD6" t="n">
-        <v>1517696.184186887</v>
+        <v>1749961.03295192</v>
       </c>
       <c r="AE6" t="n">
-        <v>2076578.875234626</v>
+        <v>2394373.888116888</v>
       </c>
       <c r="AF6" t="n">
         <v>3.750214786283127e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.79427083333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1878393.101878989</v>
+        <v>2165858.20475987</v>
       </c>
     </row>
     <row r="7">
@@ -6257,28 +6257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1450.051424140112</v>
+        <v>1672.669889173819</v>
       </c>
       <c r="AB7" t="n">
-        <v>1984.024330262435</v>
+        <v>2288.620735355081</v>
       </c>
       <c r="AC7" t="n">
-        <v>1794.671832777824</v>
+        <v>2070.197984472167</v>
       </c>
       <c r="AD7" t="n">
-        <v>1450051.424140112</v>
+        <v>1672669.889173819</v>
       </c>
       <c r="AE7" t="n">
-        <v>1984024.330262435</v>
+        <v>2288620.735355081</v>
       </c>
       <c r="AF7" t="n">
         <v>3.831987775222268e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.81770833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1794671.832777824</v>
+        <v>2070197.984472167</v>
       </c>
     </row>
     <row r="8">
@@ -6363,28 +6363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1424.15455266879</v>
+        <v>1646.773017702496</v>
       </c>
       <c r="AB8" t="n">
-        <v>1948.591088226035</v>
+        <v>2253.18749331868</v>
       </c>
       <c r="AC8" t="n">
-        <v>1762.620289630511</v>
+        <v>2038.146441324854</v>
       </c>
       <c r="AD8" t="n">
-        <v>1424154.55266879</v>
+        <v>1646773.017702496</v>
       </c>
       <c r="AE8" t="n">
-        <v>1948591.088226035</v>
+        <v>2253187.493318681</v>
       </c>
       <c r="AF8" t="n">
         <v>3.853090482045273e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.5703125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1762620.289630511</v>
+        <v>2038146.441324854</v>
       </c>
     </row>
     <row r="9">
@@ -6469,28 +6469,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1355.483401052182</v>
+        <v>1578.067700667107</v>
       </c>
       <c r="AB9" t="n">
-        <v>1854.632189026798</v>
+        <v>2159.181847486196</v>
       </c>
       <c r="AC9" t="n">
-        <v>1677.628695898705</v>
+        <v>1953.112562392869</v>
       </c>
       <c r="AD9" t="n">
-        <v>1355483.401052182</v>
+        <v>1578067.700667107</v>
       </c>
       <c r="AE9" t="n">
-        <v>1854632.189026798</v>
+        <v>2159181.847486196</v>
       </c>
       <c r="AF9" t="n">
         <v>3.926422388255212e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.73697916666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1677628.695898705</v>
+        <v>1953112.562392869</v>
       </c>
     </row>
     <row r="10">
@@ -6575,28 +6575,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1325.356707482804</v>
+        <v>1538.227303558697</v>
       </c>
       <c r="AB10" t="n">
-        <v>1813.411517789258</v>
+        <v>2104.670458528197</v>
       </c>
       <c r="AC10" t="n">
-        <v>1640.342067670501</v>
+        <v>1903.803663889806</v>
       </c>
       <c r="AD10" t="n">
-        <v>1325356.707482804</v>
+        <v>1538227.303558697</v>
       </c>
       <c r="AE10" t="n">
-        <v>1813411.517789258</v>
+        <v>2104670.458528197</v>
       </c>
       <c r="AF10" t="n">
         <v>3.954383474795692e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.43098958333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1640342.067670501</v>
+        <v>1903803.663889806</v>
       </c>
     </row>
     <row r="11">
@@ -6681,28 +6681,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1326.574125709428</v>
+        <v>1539.444721785321</v>
       </c>
       <c r="AB11" t="n">
-        <v>1815.077243115627</v>
+        <v>2106.336183854566</v>
       </c>
       <c r="AC11" t="n">
-        <v>1641.848818509581</v>
+        <v>1905.310414728886</v>
       </c>
       <c r="AD11" t="n">
-        <v>1326574.125709428</v>
+        <v>1539444.721785321</v>
       </c>
       <c r="AE11" t="n">
-        <v>1815077.243115627</v>
+        <v>2106336.183854565</v>
       </c>
       <c r="AF11" t="n">
         <v>3.958340232325006e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.38541666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1641848.818509581</v>
+        <v>1905310.414728886</v>
       </c>
     </row>
   </sheetData>
@@ -6978,28 +6978,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1597.107684957018</v>
+        <v>1868.348324571526</v>
       </c>
       <c r="AB2" t="n">
-        <v>2185.233193976476</v>
+        <v>2556.356603389527</v>
       </c>
       <c r="AC2" t="n">
-        <v>1976.677604937411</v>
+        <v>2312.381517031056</v>
       </c>
       <c r="AD2" t="n">
-        <v>1597107.684957018</v>
+        <v>1868348.324571526</v>
       </c>
       <c r="AE2" t="n">
-        <v>2185233.193976476</v>
+        <v>2556356.603389527</v>
       </c>
       <c r="AF2" t="n">
         <v>4.302242259170892e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.71614583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1976677.604937411</v>
+        <v>2312381.517031056</v>
       </c>
     </row>
     <row r="3">
@@ -7084,28 +7084,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1180.841483098251</v>
+        <v>1405.338879432907</v>
       </c>
       <c r="AB3" t="n">
-        <v>1615.679412224578</v>
+        <v>1922.846654015782</v>
       </c>
       <c r="AC3" t="n">
-        <v>1461.481236742161</v>
+        <v>1739.332868088744</v>
       </c>
       <c r="AD3" t="n">
-        <v>1180841.483098251</v>
+        <v>1405338.879432907</v>
       </c>
       <c r="AE3" t="n">
-        <v>1615679.412224578</v>
+        <v>1922846.654015782</v>
       </c>
       <c r="AF3" t="n">
         <v>5.135076832576502e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.6796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1461481.236742161</v>
+        <v>1739332.868088744</v>
       </c>
     </row>
     <row r="4">
@@ -7190,28 +7190,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1081.101143097562</v>
+        <v>1296.243057692491</v>
       </c>
       <c r="AB4" t="n">
-        <v>1479.210278802386</v>
+        <v>1773.576937742572</v>
       </c>
       <c r="AC4" t="n">
-        <v>1338.036525878151</v>
+        <v>1604.309244035286</v>
       </c>
       <c r="AD4" t="n">
-        <v>1081101.143097562</v>
+        <v>1296243.057692491</v>
       </c>
       <c r="AE4" t="n">
-        <v>1479210.278802386</v>
+        <v>1773576.937742572</v>
       </c>
       <c r="AF4" t="n">
         <v>5.342365013313618e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.86979166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1338036.525878151</v>
+        <v>1604309.244035286</v>
       </c>
     </row>
     <row r="5">
@@ -7296,28 +7296,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1086.117421239055</v>
+        <v>1301.259335833984</v>
       </c>
       <c r="AB5" t="n">
-        <v>1486.073771858151</v>
+        <v>1780.440430798336</v>
       </c>
       <c r="AC5" t="n">
-        <v>1344.244976789646</v>
+        <v>1610.517694946781</v>
       </c>
       <c r="AD5" t="n">
-        <v>1086117.421239055</v>
+        <v>1301259.335833984</v>
       </c>
       <c r="AE5" t="n">
-        <v>1486073.771858151</v>
+        <v>1780440.430798336</v>
       </c>
       <c r="AF5" t="n">
         <v>5.342365013313618e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.86979166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1344244.976789647</v>
+        <v>1610517.694946781</v>
       </c>
     </row>
   </sheetData>
@@ -7593,28 +7593,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2159.519353931244</v>
+        <v>2462.927432623791</v>
       </c>
       <c r="AB2" t="n">
-        <v>2954.749651318714</v>
+        <v>3369.885970005786</v>
       </c>
       <c r="AC2" t="n">
-        <v>2672.752491614037</v>
+        <v>3048.26878269297</v>
       </c>
       <c r="AD2" t="n">
-        <v>2159519.353931244</v>
+        <v>2462927.432623791</v>
       </c>
       <c r="AE2" t="n">
-        <v>2954749.651318714</v>
+        <v>3369885.970005786</v>
       </c>
       <c r="AF2" t="n">
         <v>3.311236117981897e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.6953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2672752.491614037</v>
+        <v>3048268.782692971</v>
       </c>
     </row>
     <row r="3">
@@ -7699,28 +7699,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1479.408989801265</v>
+        <v>1716.371757786751</v>
       </c>
       <c r="AB3" t="n">
-        <v>2024.192646764413</v>
+        <v>2348.415559981669</v>
       </c>
       <c r="AC3" t="n">
-        <v>1831.006541529439</v>
+        <v>2124.286074958957</v>
       </c>
       <c r="AD3" t="n">
-        <v>1479408.989801265</v>
+        <v>1716371.757786751</v>
       </c>
       <c r="AE3" t="n">
-        <v>2024192.646764413</v>
+        <v>2348415.559981669</v>
       </c>
       <c r="AF3" t="n">
         <v>4.195082677350778e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.48567708333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1831006.541529439</v>
+        <v>2124286.074958957</v>
       </c>
     </row>
     <row r="4">
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1302.07458190051</v>
+        <v>1520.10637504782</v>
       </c>
       <c r="AB4" t="n">
-        <v>1781.555886432675</v>
+        <v>2079.876604700671</v>
       </c>
       <c r="AC4" t="n">
-        <v>1611.52669306093</v>
+        <v>1881.376100673187</v>
       </c>
       <c r="AD4" t="n">
-        <v>1302074.58190051</v>
+        <v>1520106.37504782</v>
       </c>
       <c r="AE4" t="n">
-        <v>1781555.886432675</v>
+        <v>2079876.604700671</v>
       </c>
       <c r="AF4" t="n">
         <v>4.511061010804804e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1611526.69306093</v>
+        <v>1881376.100673187</v>
       </c>
     </row>
     <row r="5">
@@ -7911,28 +7911,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1195.863424930877</v>
+        <v>1413.826887240626</v>
       </c>
       <c r="AB5" t="n">
-        <v>1636.233095761278</v>
+        <v>1934.460320762779</v>
       </c>
       <c r="AC5" t="n">
-        <v>1480.073305569395</v>
+        <v>1749.838142781291</v>
       </c>
       <c r="AD5" t="n">
-        <v>1195863.424930878</v>
+        <v>1413826.887240626</v>
       </c>
       <c r="AE5" t="n">
-        <v>1636233.095761278</v>
+        <v>1934460.320762779</v>
       </c>
       <c r="AF5" t="n">
         <v>4.679093888433736e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.36197916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1480073.305569394</v>
+        <v>1749838.142781291</v>
       </c>
     </row>
     <row r="6">
@@ -8017,28 +8017,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1172.945511768673</v>
+        <v>1381.494734787505</v>
       </c>
       <c r="AB6" t="n">
-        <v>1604.875795905779</v>
+        <v>1890.222043382522</v>
       </c>
       <c r="AC6" t="n">
-        <v>1451.708702401858</v>
+        <v>1709.821904505393</v>
       </c>
       <c r="AD6" t="n">
-        <v>1172945.511768673</v>
+        <v>1381494.734787505</v>
       </c>
       <c r="AE6" t="n">
-        <v>1604875.795905779</v>
+        <v>1890222.043382522</v>
       </c>
       <c r="AF6" t="n">
         <v>4.713529468668886e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.03645833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1451708.702401858</v>
+        <v>1709821.904505393</v>
       </c>
     </row>
   </sheetData>
@@ -8314,28 +8314,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1253.326357555831</v>
+        <v>1493.757195299952</v>
       </c>
       <c r="AB2" t="n">
-        <v>1714.85641526441</v>
+        <v>2043.824494525869</v>
       </c>
       <c r="AC2" t="n">
-        <v>1551.192925807669</v>
+        <v>1848.764753294013</v>
       </c>
       <c r="AD2" t="n">
-        <v>1253326.357555831</v>
+        <v>1493757.195299952</v>
       </c>
       <c r="AE2" t="n">
-        <v>1714856.41526441</v>
+        <v>2043824.494525869</v>
       </c>
       <c r="AF2" t="n">
         <v>5.356928110806516e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>1551192.925807669</v>
+        <v>1848764.753294013</v>
       </c>
     </row>
     <row r="3">
@@ -8420,28 +8420,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1032.126761948839</v>
+        <v>1244.838035538209</v>
       </c>
       <c r="AB3" t="n">
-        <v>1412.201369917495</v>
+        <v>1703.242318601562</v>
       </c>
       <c r="AC3" t="n">
-        <v>1277.42285320964</v>
+        <v>1540.687262229836</v>
       </c>
       <c r="AD3" t="n">
-        <v>1032126.761948839</v>
+        <v>1244838.035538209</v>
       </c>
       <c r="AE3" t="n">
-        <v>1412201.369917495</v>
+        <v>1703242.318601562</v>
       </c>
       <c r="AF3" t="n">
         <v>5.965449504484687e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.02213541666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1277422.85320964</v>
+        <v>1540687.262229836</v>
       </c>
     </row>
   </sheetData>
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3987.347697655459</v>
+        <v>4395.021217779698</v>
       </c>
       <c r="AB2" t="n">
-        <v>5455.665029297871</v>
+        <v>6013.461924818258</v>
       </c>
       <c r="AC2" t="n">
-        <v>4934.984015975436</v>
+        <v>5439.545558660196</v>
       </c>
       <c r="AD2" t="n">
-        <v>3987347.697655459</v>
+        <v>4395021.217779698</v>
       </c>
       <c r="AE2" t="n">
-        <v>5455665.029297872</v>
+        <v>6013461.924818258</v>
       </c>
       <c r="AF2" t="n">
         <v>2.018106073654792e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>84</v>
+        <v>83.04036458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4934984.015975436</v>
+        <v>5439545.558660195</v>
       </c>
     </row>
     <row r="3">
@@ -8823,28 +8823,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2182.58062171942</v>
+        <v>2464.003903340133</v>
       </c>
       <c r="AB3" t="n">
-        <v>2986.303095297827</v>
+        <v>3371.358844730421</v>
       </c>
       <c r="AC3" t="n">
-        <v>2701.29451918532</v>
+        <v>3049.60108832108</v>
       </c>
       <c r="AD3" t="n">
-        <v>2182580.62171942</v>
+        <v>2464003.903340133</v>
       </c>
       <c r="AE3" t="n">
-        <v>2986303.095297827</v>
+        <v>3371358.844730421</v>
       </c>
       <c r="AF3" t="n">
         <v>2.97052858290514e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.41927083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2701294.51918532</v>
+        <v>3049601.08832108</v>
       </c>
     </row>
     <row r="4">
@@ -8929,28 +8929,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1831.994416378963</v>
+        <v>2084.290911903193</v>
       </c>
       <c r="AB4" t="n">
-        <v>2506.615582379224</v>
+        <v>2851.818778091304</v>
       </c>
       <c r="AC4" t="n">
-        <v>2267.387709254016</v>
+        <v>2579.645196463063</v>
       </c>
       <c r="AD4" t="n">
-        <v>1831994.416378963</v>
+        <v>2084290.911903193</v>
       </c>
       <c r="AE4" t="n">
-        <v>2506615.582379224</v>
+        <v>2851818.778091304</v>
       </c>
       <c r="AF4" t="n">
         <v>3.327300906640541e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.37109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2267387.709254016</v>
+        <v>2579645.196463063</v>
       </c>
     </row>
     <row r="5">
@@ -9035,28 +9035,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1672.886851810772</v>
+        <v>1915.54173844388</v>
       </c>
       <c r="AB5" t="n">
-        <v>2288.917593206677</v>
+        <v>2620.928714276159</v>
       </c>
       <c r="AC5" t="n">
-        <v>2070.46651062705</v>
+        <v>2370.790956282196</v>
       </c>
       <c r="AD5" t="n">
-        <v>1672886.851810772</v>
+        <v>1915541.73844388</v>
       </c>
       <c r="AE5" t="n">
-        <v>2288917.593206677</v>
+        <v>2620928.714276159</v>
       </c>
       <c r="AF5" t="n">
         <v>3.512894590199866e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.70833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2070466.51062705</v>
+        <v>2370790.956282196</v>
       </c>
     </row>
     <row r="6">
@@ -9141,28 +9141,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1583.103297212194</v>
+        <v>1806.341337477505</v>
       </c>
       <c r="AB6" t="n">
-        <v>2166.071772834025</v>
+        <v>2471.515908092283</v>
       </c>
       <c r="AC6" t="n">
-        <v>1959.344922935572</v>
+        <v>2235.637898618318</v>
       </c>
       <c r="AD6" t="n">
-        <v>1583103.297212194</v>
+        <v>1806341.337477505</v>
       </c>
       <c r="AE6" t="n">
-        <v>2166071.772834025</v>
+        <v>2471515.908092283</v>
       </c>
       <c r="AF6" t="n">
         <v>3.630274229177746e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.16536458333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1959344.922935572</v>
+        <v>2235637.898618318</v>
       </c>
     </row>
     <row r="7">
@@ -9247,28 +9247,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1515.528484291544</v>
+        <v>1738.732359138075</v>
       </c>
       <c r="AB7" t="n">
-        <v>2073.612932605648</v>
+        <v>2379.010321230658</v>
       </c>
       <c r="AC7" t="n">
-        <v>1875.710224651793</v>
+        <v>2151.96091513436</v>
       </c>
       <c r="AD7" t="n">
-        <v>1515528.484291544</v>
+        <v>1738732.359138075</v>
       </c>
       <c r="AE7" t="n">
-        <v>2073612.932605648</v>
+        <v>2379010.321230658</v>
       </c>
       <c r="AF7" t="n">
         <v>3.710329202252573e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.16276041666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1875710.224651793</v>
+        <v>2151960.91513436</v>
       </c>
     </row>
     <row r="8">
@@ -9353,28 +9353,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1443.928738697703</v>
+        <v>1657.457850264188</v>
       </c>
       <c r="AB8" t="n">
-        <v>1975.647001926312</v>
+        <v>2267.806952611132</v>
       </c>
       <c r="AC8" t="n">
-        <v>1787.094024900447</v>
+        <v>2051.370639940973</v>
       </c>
       <c r="AD8" t="n">
-        <v>1443928.738697703</v>
+        <v>1657457.850264187</v>
       </c>
       <c r="AE8" t="n">
-        <v>1975647.001926312</v>
+        <v>2267806.952611132</v>
       </c>
       <c r="AF8" t="n">
         <v>3.796047228085104e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.14713541666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1787094.024900447</v>
+        <v>2051370.639940973</v>
       </c>
     </row>
     <row r="9">
@@ -9459,28 +9459,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1422.902556335371</v>
+        <v>1636.431667901855</v>
       </c>
       <c r="AB9" t="n">
-        <v>1946.878051608471</v>
+        <v>2239.03800229329</v>
       </c>
       <c r="AC9" t="n">
-        <v>1761.070742823465</v>
+        <v>2025.347357863991</v>
       </c>
       <c r="AD9" t="n">
-        <v>1422902.556335371</v>
+        <v>1636431.667901855</v>
       </c>
       <c r="AE9" t="n">
-        <v>1946878.051608471</v>
+        <v>2239038.00229329</v>
       </c>
       <c r="AF9" t="n">
         <v>3.805056630199634e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.04296875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1761070.742823465</v>
+        <v>2025347.357863991</v>
       </c>
     </row>
     <row r="10">
@@ -9565,28 +9565,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1374.991977710403</v>
+        <v>1598.229006945857</v>
       </c>
       <c r="AB10" t="n">
-        <v>1881.324684268236</v>
+        <v>2186.76743619084</v>
       </c>
       <c r="AC10" t="n">
-        <v>1701.773696857453</v>
+        <v>1978.065421228159</v>
       </c>
       <c r="AD10" t="n">
-        <v>1374991.977710403</v>
+        <v>1598229.006945857</v>
       </c>
       <c r="AE10" t="n">
-        <v>1881324.684268236</v>
+        <v>2186767.43619084</v>
       </c>
       <c r="AF10" t="n">
         <v>3.844955410992554e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.58723958333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1701773.696857453</v>
+        <v>1978065.421228159</v>
       </c>
     </row>
     <row r="11">
@@ -9671,28 +9671,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1350.424699096573</v>
+        <v>1563.919645244277</v>
       </c>
       <c r="AB11" t="n">
-        <v>1847.710649836955</v>
+        <v>2139.823853888527</v>
       </c>
       <c r="AC11" t="n">
-        <v>1671.3677386947</v>
+        <v>1935.602068535046</v>
       </c>
       <c r="AD11" t="n">
-        <v>1350424.699096573</v>
+        <v>1563919.645244277</v>
       </c>
       <c r="AE11" t="n">
-        <v>1847710.649836955</v>
+        <v>2139823.853888527</v>
       </c>
       <c r="AF11" t="n">
         <v>3.865805741600467e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.34635416666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>1671367.7386947</v>
+        <v>1935602.068535046</v>
       </c>
     </row>
     <row r="12">
@@ -9777,28 +9777,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1354.427536261814</v>
+        <v>1567.922482409518</v>
       </c>
       <c r="AB12" t="n">
-        <v>1853.18750823915</v>
+        <v>2145.300712290722</v>
       </c>
       <c r="AC12" t="n">
-        <v>1676.321893417809</v>
+        <v>1940.556223258155</v>
       </c>
       <c r="AD12" t="n">
-        <v>1354427.536261814</v>
+        <v>1567922.482409518</v>
       </c>
       <c r="AE12" t="n">
-        <v>1853187.508239151</v>
+        <v>2145300.712290722</v>
       </c>
       <c r="AF12" t="n">
         <v>3.862459392243641e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.39192708333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>1676321.893417809</v>
+        <v>1940556.223258155</v>
       </c>
     </row>
   </sheetData>
@@ -10074,28 +10074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1066.089716517411</v>
+        <v>1304.91469770241</v>
       </c>
       <c r="AB2" t="n">
-        <v>1458.670982698023</v>
+        <v>1785.4418581699</v>
       </c>
       <c r="AC2" t="n">
-        <v>1319.457471366906</v>
+        <v>1615.04179310955</v>
       </c>
       <c r="AD2" t="n">
-        <v>1066089.716517411</v>
+        <v>1304914.69770241</v>
       </c>
       <c r="AE2" t="n">
-        <v>1458670.982698023</v>
+        <v>1785441.8581699</v>
       </c>
       <c r="AF2" t="n">
         <v>6.149393961028677e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.85416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1319457.471366906</v>
+        <v>1615041.79310955</v>
       </c>
     </row>
     <row r="3">
@@ -10180,28 +10180,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1005.580662243587</v>
+        <v>1226.027617732185</v>
       </c>
       <c r="AB3" t="n">
-        <v>1375.879825169504</v>
+        <v>1677.505075102294</v>
       </c>
       <c r="AC3" t="n">
-        <v>1244.567785714789</v>
+        <v>1517.406345127691</v>
       </c>
       <c r="AD3" t="n">
-        <v>1005580.662243586</v>
+        <v>1226027.617732185</v>
       </c>
       <c r="AE3" t="n">
-        <v>1375879.825169504</v>
+        <v>1677505.075102294</v>
       </c>
       <c r="AF3" t="n">
         <v>6.384258636211658e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.05729166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1244567.785714789</v>
+        <v>1517406.345127691</v>
       </c>
     </row>
   </sheetData>
@@ -10477,28 +10477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2827.058210818802</v>
+        <v>3172.208021609371</v>
       </c>
       <c r="AB2" t="n">
-        <v>3868.105765048401</v>
+        <v>4340.354963107074</v>
       </c>
       <c r="AC2" t="n">
-        <v>3498.939179752573</v>
+        <v>3926.117577154421</v>
       </c>
       <c r="AD2" t="n">
-        <v>2827058.210818802</v>
+        <v>3172208.021609372</v>
       </c>
       <c r="AE2" t="n">
-        <v>3868105.765048401</v>
+        <v>4340354.963107074</v>
       </c>
       <c r="AF2" t="n">
         <v>2.648002203650006e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>71</v>
+        <v>70.52083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3498939.179752573</v>
+        <v>3926117.577154421</v>
       </c>
     </row>
     <row r="3">
@@ -10583,28 +10583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1770.288188077746</v>
+        <v>2029.040519589492</v>
       </c>
       <c r="AB3" t="n">
-        <v>2422.186398530837</v>
+        <v>2776.222753852419</v>
       </c>
       <c r="AC3" t="n">
-        <v>2191.016328215015</v>
+        <v>2511.263950677851</v>
       </c>
       <c r="AD3" t="n">
-        <v>1770288.188077746</v>
+        <v>2029040.519589492</v>
       </c>
       <c r="AE3" t="n">
-        <v>2422186.398530837</v>
+        <v>2776222.753852419</v>
       </c>
       <c r="AF3" t="n">
         <v>3.570156350610012e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.3046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2191016.328215015</v>
+        <v>2511263.950677851</v>
       </c>
     </row>
     <row r="4">
@@ -10689,28 +10689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1525.736600450738</v>
+        <v>1765.379364203002</v>
       </c>
       <c r="AB4" t="n">
-        <v>2087.580127484957</v>
+        <v>2415.469929143387</v>
       </c>
       <c r="AC4" t="n">
-        <v>1888.344410054902</v>
+        <v>2184.940869239279</v>
       </c>
       <c r="AD4" t="n">
-        <v>1525736.600450738</v>
+        <v>1765379.364203002</v>
       </c>
       <c r="AE4" t="n">
-        <v>2087580.127484957</v>
+        <v>2415469.929143387</v>
       </c>
       <c r="AF4" t="n">
         <v>3.901156626066263e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.86458333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1888344.410054903</v>
+        <v>2184940.869239279</v>
       </c>
     </row>
     <row r="5">
@@ -10795,28 +10795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1407.030385443795</v>
+        <v>1637.084705412467</v>
       </c>
       <c r="AB5" t="n">
-        <v>1925.161047163857</v>
+        <v>2239.93151702529</v>
       </c>
       <c r="AC5" t="n">
-        <v>1741.426378803038</v>
+        <v>2026.155596804025</v>
       </c>
       <c r="AD5" t="n">
-        <v>1407030.385443795</v>
+        <v>1637084.705412467</v>
       </c>
       <c r="AE5" t="n">
-        <v>1925161.047163857</v>
+        <v>2239931.51702529</v>
       </c>
       <c r="AF5" t="n">
         <v>4.074687966318456e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.82682291666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1741426.378803038</v>
+        <v>2026155.596804025</v>
       </c>
     </row>
     <row r="6">
@@ -10901,28 +10901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1329.154161481867</v>
+        <v>1549.654203085727</v>
       </c>
       <c r="AB6" t="n">
-        <v>1818.607361882623</v>
+        <v>2120.305246580307</v>
       </c>
       <c r="AC6" t="n">
-        <v>1645.042027696008</v>
+        <v>1917.946289713786</v>
       </c>
       <c r="AD6" t="n">
-        <v>1329154.161481867</v>
+        <v>1549654.203085727</v>
       </c>
       <c r="AE6" t="n">
-        <v>1818607.361882623</v>
+        <v>2120305.246580306</v>
       </c>
       <c r="AF6" t="n">
         <v>4.185403829685972e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.61588541666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1645042.027696008</v>
+        <v>1917946.289713786</v>
       </c>
     </row>
     <row r="7">
@@ -11007,28 +11007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1286.104726327848</v>
+        <v>1496.983169759191</v>
       </c>
       <c r="AB7" t="n">
-        <v>1759.705225497854</v>
+        <v>2048.238415100947</v>
       </c>
       <c r="AC7" t="n">
-        <v>1591.761428538134</v>
+        <v>1852.757415484383</v>
       </c>
       <c r="AD7" t="n">
-        <v>1286104.726327848</v>
+        <v>1496983.169759191</v>
       </c>
       <c r="AE7" t="n">
-        <v>1759705.225497854</v>
+        <v>2048238.415100947</v>
       </c>
       <c r="AF7" t="n">
         <v>4.231296415537792e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.13411458333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1591761.428538134</v>
+        <v>1852757.415484383</v>
       </c>
     </row>
     <row r="8">
@@ -11113,28 +11113,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1243.082525340204</v>
+        <v>1463.548401525283</v>
       </c>
       <c r="AB8" t="n">
-        <v>1700.840352101007</v>
+        <v>2002.491490165443</v>
       </c>
       <c r="AC8" t="n">
-        <v>1538.514536040913</v>
+        <v>1811.376512858511</v>
       </c>
       <c r="AD8" t="n">
-        <v>1243082.525340204</v>
+        <v>1463548.401525283</v>
       </c>
       <c r="AE8" t="n">
-        <v>1700840.352101007</v>
+        <v>2002491.490165443</v>
       </c>
       <c r="AF8" t="n">
         <v>4.283499231944237e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.59375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1538514.536040913</v>
+        <v>1811376.51285851</v>
       </c>
     </row>
     <row r="9">
@@ -11219,28 +11219,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1247.572828266779</v>
+        <v>1468.038704451858</v>
       </c>
       <c r="AB9" t="n">
-        <v>1706.984182663331</v>
+        <v>2008.635320727767</v>
       </c>
       <c r="AC9" t="n">
-        <v>1544.072008037289</v>
+        <v>1816.933984854887</v>
       </c>
       <c r="AD9" t="n">
-        <v>1247572.828266779</v>
+        <v>1468038.704451858</v>
       </c>
       <c r="AE9" t="n">
-        <v>1706984.182663331</v>
+        <v>2008635.320727767</v>
       </c>
       <c r="AF9" t="n">
         <v>4.283212403282663e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.60026041666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1544072.008037289</v>
+        <v>1816933.984854887</v>
       </c>
     </row>
   </sheetData>
@@ -11516,28 +11516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3357.688379616035</v>
+        <v>3733.945255874538</v>
       </c>
       <c r="AB2" t="n">
-        <v>4594.137371747686</v>
+        <v>5108.948629126461</v>
       </c>
       <c r="AC2" t="n">
-        <v>4155.679348900212</v>
+        <v>4621.357742416874</v>
       </c>
       <c r="AD2" t="n">
-        <v>3357688.379616036</v>
+        <v>3733945.255874538</v>
       </c>
       <c r="AE2" t="n">
-        <v>4594137.371747687</v>
+        <v>5108948.629126461</v>
       </c>
       <c r="AF2" t="n">
         <v>2.306713533494018e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>77</v>
+        <v>76.41276041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4155679.348900212</v>
+        <v>4621357.742416875</v>
       </c>
     </row>
     <row r="3">
@@ -11622,28 +11622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1971.421452725684</v>
+        <v>2241.516334216459</v>
       </c>
       <c r="AB3" t="n">
-        <v>2697.38580459553</v>
+        <v>3066.941537196585</v>
       </c>
       <c r="AC3" t="n">
-        <v>2439.951089209686</v>
+        <v>2774.236941365909</v>
       </c>
       <c r="AD3" t="n">
-        <v>1971421.452725684</v>
+        <v>2241516.334216459</v>
       </c>
       <c r="AE3" t="n">
-        <v>2697385.80459553</v>
+        <v>3066941.537196585</v>
       </c>
       <c r="AF3" t="n">
         <v>3.246455631470279e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.29036458333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2439951.089209686</v>
+        <v>2774236.941365909</v>
       </c>
     </row>
     <row r="4">
@@ -11728,28 +11728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1681.655390765942</v>
+        <v>1922.831166375205</v>
       </c>
       <c r="AB4" t="n">
-        <v>2300.915095045776</v>
+        <v>2630.902431158662</v>
       </c>
       <c r="AC4" t="n">
-        <v>2081.318987729225</v>
+        <v>2379.812795623632</v>
       </c>
       <c r="AD4" t="n">
-        <v>1681655.390765941</v>
+        <v>1922831.166375205</v>
       </c>
       <c r="AE4" t="n">
-        <v>2300915.095045776</v>
+        <v>2630902.431158662</v>
       </c>
       <c r="AF4" t="n">
         <v>3.591379697394149e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.08203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2081318.987729225</v>
+        <v>2379812.795623632</v>
       </c>
     </row>
     <row r="5">
@@ -11834,28 +11834,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1540.979877655033</v>
+        <v>1772.571882638571</v>
       </c>
       <c r="AB5" t="n">
-        <v>2108.436651841803</v>
+        <v>2425.311050178451</v>
       </c>
       <c r="AC5" t="n">
-        <v>1907.210416999447</v>
+        <v>2193.842767494857</v>
       </c>
       <c r="AD5" t="n">
-        <v>1540979.877655033</v>
+        <v>1772571.882638571</v>
       </c>
       <c r="AE5" t="n">
-        <v>2108436.651841803</v>
+        <v>2425311.050178451</v>
       </c>
       <c r="AF5" t="n">
         <v>3.770068773932419e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.7578125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1907210.416999447</v>
+        <v>2193842.767494857</v>
       </c>
     </row>
     <row r="6">
@@ -11940,28 +11940,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1457.943839296567</v>
+        <v>1679.817434038971</v>
       </c>
       <c r="AB6" t="n">
-        <v>1994.82308086828</v>
+        <v>2298.400321567007</v>
       </c>
       <c r="AC6" t="n">
-        <v>1804.439965781989</v>
+        <v>2079.044220701763</v>
       </c>
       <c r="AD6" t="n">
-        <v>1457943.839296567</v>
+        <v>1679817.434038971</v>
       </c>
       <c r="AE6" t="n">
-        <v>1994823.08086828</v>
+        <v>2298400.321567007</v>
       </c>
       <c r="AF6" t="n">
         <v>3.884592227531946e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.37760416666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1804439.965781989</v>
+        <v>2079044.220701763</v>
       </c>
     </row>
     <row r="7">
@@ -12046,28 +12046,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1390.38870246477</v>
+        <v>1612.228131788393</v>
       </c>
       <c r="AB7" t="n">
-        <v>1902.391162332718</v>
+        <v>2205.921656398199</v>
       </c>
       <c r="AC7" t="n">
-        <v>1720.829619822449</v>
+        <v>1995.391589542043</v>
       </c>
       <c r="AD7" t="n">
-        <v>1390388.70246477</v>
+        <v>1612228.131788393</v>
       </c>
       <c r="AE7" t="n">
-        <v>1902391.162332718</v>
+        <v>2205921.656398199</v>
       </c>
       <c r="AF7" t="n">
         <v>3.965814535049341e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.44661458333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>1720829.619822449</v>
+        <v>1995391.589542043</v>
       </c>
     </row>
     <row r="8">
@@ -12152,28 +12152,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1343.886234560055</v>
+        <v>1565.792983691383</v>
       </c>
       <c r="AB8" t="n">
-        <v>1838.764434201394</v>
+        <v>2142.387038197716</v>
       </c>
       <c r="AC8" t="n">
-        <v>1663.275337323304</v>
+        <v>1937.920626131218</v>
       </c>
       <c r="AD8" t="n">
-        <v>1343886.234560055</v>
+        <v>1565792.983691383</v>
       </c>
       <c r="AE8" t="n">
-        <v>1838764.434201394</v>
+        <v>2142387.038197716</v>
       </c>
       <c r="AF8" t="n">
         <v>4.006696429833096e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.99088541666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1663275.337323304</v>
+        <v>1937920.626131218</v>
       </c>
     </row>
     <row r="9">
@@ -12258,28 +12258,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1303.192621434434</v>
+        <v>1515.516610969893</v>
       </c>
       <c r="AB9" t="n">
-        <v>1783.085637447412</v>
+        <v>2073.59668700315</v>
       </c>
       <c r="AC9" t="n">
-        <v>1612.91044678584</v>
+        <v>1875.695529506797</v>
       </c>
       <c r="AD9" t="n">
-        <v>1303192.621434434</v>
+        <v>1515516.610969893</v>
       </c>
       <c r="AE9" t="n">
-        <v>1783085.637447412</v>
+        <v>2073596.68700315</v>
       </c>
       <c r="AF9" t="n">
         <v>4.050827216917547e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.515625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1612910.44678584</v>
+        <v>1875695.529506797</v>
       </c>
     </row>
     <row r="10">
@@ -12364,28 +12364,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1300.333817912747</v>
+        <v>1512.556322221721</v>
       </c>
       <c r="AB10" t="n">
-        <v>1779.17409634753</v>
+        <v>2069.546289339179</v>
       </c>
       <c r="AC10" t="n">
-        <v>1609.372217678649</v>
+        <v>1872.031696111107</v>
       </c>
       <c r="AD10" t="n">
-        <v>1300333.817912747</v>
+        <v>1512556.322221721</v>
       </c>
       <c r="AE10" t="n">
-        <v>1779174.09634753</v>
+        <v>2069546.289339179</v>
       </c>
       <c r="AF10" t="n">
         <v>4.052993145118011e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.48958333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1609372.217678649</v>
+        <v>1872031.696111107</v>
       </c>
     </row>
   </sheetData>
@@ -12661,28 +12661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4722.344546517169</v>
+        <v>5180.993808942589</v>
       </c>
       <c r="AB2" t="n">
-        <v>6461.320143682997</v>
+        <v>7088.864298710893</v>
       </c>
       <c r="AC2" t="n">
-        <v>5844.660817689425</v>
+        <v>6412.313039325189</v>
       </c>
       <c r="AD2" t="n">
-        <v>4722344.546517169</v>
+        <v>5180993.808942589</v>
       </c>
       <c r="AE2" t="n">
-        <v>6461320.143682997</v>
+        <v>7088864.298710893</v>
       </c>
       <c r="AF2" t="n">
         <v>1.772049546927973e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>91</v>
+        <v>90.42317708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5844660.817689425</v>
+        <v>6412313.039325189</v>
       </c>
     </row>
     <row r="3">
@@ -12767,28 +12767,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2403.965121049054</v>
+        <v>2696.81600493341</v>
       </c>
       <c r="AB3" t="n">
-        <v>3289.211134075627</v>
+        <v>3689.902633075396</v>
       </c>
       <c r="AC3" t="n">
-        <v>2975.293439876145</v>
+        <v>3337.743504585413</v>
       </c>
       <c r="AD3" t="n">
-        <v>2403965.121049054</v>
+        <v>2696816.00493341</v>
       </c>
       <c r="AE3" t="n">
-        <v>3289211.134075627</v>
+        <v>3689902.633075397</v>
       </c>
       <c r="AF3" t="n">
         <v>2.733386426136399e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.61979166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2975293.439876145</v>
+        <v>3337743.504585413</v>
       </c>
     </row>
     <row r="4">
@@ -12873,28 +12873,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1985.579185733925</v>
+        <v>2249.107399269188</v>
       </c>
       <c r="AB4" t="n">
-        <v>2716.757039492504</v>
+        <v>3077.327967295883</v>
       </c>
       <c r="AC4" t="n">
-        <v>2457.473560635792</v>
+        <v>2783.632105153977</v>
       </c>
       <c r="AD4" t="n">
-        <v>1985579.185733925</v>
+        <v>2249107.399269188</v>
       </c>
       <c r="AE4" t="n">
-        <v>2716757.039492504</v>
+        <v>3077327.967295883</v>
       </c>
       <c r="AF4" t="n">
         <v>3.097394937234519e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.73177083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2457473.560635792</v>
+        <v>2783632.105153976</v>
       </c>
     </row>
     <row r="5">
@@ -12979,28 +12979,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1805.983853074316</v>
+        <v>2050.020562074815</v>
       </c>
       <c r="AB5" t="n">
-        <v>2471.02678216074</v>
+        <v>2804.928573554988</v>
       </c>
       <c r="AC5" t="n">
-        <v>2235.19545417919</v>
+        <v>2537.230127236878</v>
       </c>
       <c r="AD5" t="n">
-        <v>1805983.853074316</v>
+        <v>2050020.562074815</v>
       </c>
       <c r="AE5" t="n">
-        <v>2471026.78216074</v>
+        <v>2804928.573554988</v>
       </c>
       <c r="AF5" t="n">
         <v>3.289613089477679e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.7109375</v>
       </c>
       <c r="AH5" t="n">
-        <v>2235195.45417919</v>
+        <v>2537230.127236878</v>
       </c>
     </row>
     <row r="6">
@@ -13085,28 +13085,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1695.512117771211</v>
+        <v>1939.480495934148</v>
       </c>
       <c r="AB6" t="n">
-        <v>2319.874480250037</v>
+        <v>2653.682778377789</v>
       </c>
       <c r="AC6" t="n">
-        <v>2098.468915819255</v>
+        <v>2400.419018476584</v>
       </c>
       <c r="AD6" t="n">
-        <v>1695512.117771211</v>
+        <v>1939480.495934148</v>
       </c>
       <c r="AE6" t="n">
-        <v>2319874.480250037</v>
+        <v>2653682.778377789</v>
       </c>
       <c r="AF6" t="n">
         <v>3.413656557762637e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.94010416666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2098468.915819256</v>
+        <v>2400419.018476584</v>
       </c>
     </row>
     <row r="7">
@@ -13191,28 +13191,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1624.593364499075</v>
+        <v>1858.833073104022</v>
       </c>
       <c r="AB7" t="n">
-        <v>2222.840313308521</v>
+        <v>2543.337416548421</v>
       </c>
       <c r="AC7" t="n">
-        <v>2010.695553582328</v>
+        <v>2300.604863109522</v>
       </c>
       <c r="AD7" t="n">
-        <v>1624593.364499075</v>
+        <v>1858833.073104022</v>
       </c>
       <c r="AE7" t="n">
-        <v>2222840.313308521</v>
+        <v>2543337.416548421</v>
       </c>
       <c r="AF7" t="n">
         <v>3.493644905367024e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.86588541666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2010695.553582328</v>
+        <v>2300604.863109522</v>
       </c>
     </row>
     <row r="8">
@@ -13297,28 +13297,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1575.169778822903</v>
+        <v>1799.613498062155</v>
       </c>
       <c r="AB8" t="n">
-        <v>2155.216782971668</v>
+        <v>2462.310581392874</v>
       </c>
       <c r="AC8" t="n">
-        <v>1949.525918070604</v>
+        <v>2227.311115379344</v>
       </c>
       <c r="AD8" t="n">
-        <v>1575169.778822903</v>
+        <v>1799613.498062155</v>
       </c>
       <c r="AE8" t="n">
-        <v>2155216.782971668</v>
+        <v>2462310.581392874</v>
       </c>
       <c r="AF8" t="n">
         <v>3.556158875494762e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.05859375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1949525.918070604</v>
+        <v>2227311.115379344</v>
       </c>
     </row>
     <row r="9">
@@ -13403,28 +13403,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1538.986451956539</v>
+        <v>1763.497491003495</v>
       </c>
       <c r="AB9" t="n">
-        <v>2105.709158857388</v>
+        <v>2412.895067209436</v>
       </c>
       <c r="AC9" t="n">
-        <v>1904.743232117404</v>
+        <v>2182.611748514463</v>
       </c>
       <c r="AD9" t="n">
-        <v>1538986.451956539</v>
+        <v>1763497.491003495</v>
       </c>
       <c r="AE9" t="n">
-        <v>2105709.158857387</v>
+        <v>2412895.067209436</v>
       </c>
       <c r="AF9" t="n">
         <v>3.584216326654454e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.70703125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1904743.232117404</v>
+        <v>2182611.748514463</v>
       </c>
     </row>
     <row r="10">
@@ -13509,28 +13509,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1495.857247638716</v>
+        <v>1710.572297319977</v>
       </c>
       <c r="AB10" t="n">
-        <v>2046.697878783535</v>
+        <v>2340.480482316889</v>
       </c>
       <c r="AC10" t="n">
-        <v>1851.363905790948</v>
+        <v>2117.108309969553</v>
       </c>
       <c r="AD10" t="n">
-        <v>1495857.247638716</v>
+        <v>1710572.297319977</v>
       </c>
       <c r="AE10" t="n">
-        <v>2046697.878783535</v>
+        <v>2340480.482316889</v>
       </c>
       <c r="AF10" t="n">
         <v>3.632701571202345e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.10807291666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1851363.905790948</v>
+        <v>2117108.309969553</v>
       </c>
     </row>
     <row r="11">
@@ -13615,28 +13615,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1448.25085285128</v>
+        <v>1672.727726479456</v>
       </c>
       <c r="AB11" t="n">
-        <v>1981.560709189456</v>
+        <v>2288.699870908256</v>
       </c>
       <c r="AC11" t="n">
-        <v>1792.443336242336</v>
+        <v>2070.269567439215</v>
       </c>
       <c r="AD11" t="n">
-        <v>1448250.85285128</v>
+        <v>1672727.726479456</v>
       </c>
       <c r="AE11" t="n">
-        <v>1981560.709189455</v>
+        <v>2288699.870908256</v>
       </c>
       <c r="AF11" t="n">
         <v>3.667404208163017e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.69140625</v>
       </c>
       <c r="AH11" t="n">
-        <v>1792443.336242336</v>
+        <v>2070269.567439215</v>
       </c>
     </row>
     <row r="12">
@@ -13721,28 +13721,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1419.330935588206</v>
+        <v>1634.011819850687</v>
       </c>
       <c r="AB12" t="n">
-        <v>1941.991202533413</v>
+        <v>2235.72705943352</v>
       </c>
       <c r="AC12" t="n">
-        <v>1756.650287765395</v>
+        <v>2022.35240674382</v>
       </c>
       <c r="AD12" t="n">
-        <v>1419330.935588206</v>
+        <v>1634011.819850687</v>
       </c>
       <c r="AE12" t="n">
-        <v>1941991.202533413</v>
+        <v>2235727.05943352</v>
       </c>
       <c r="AF12" t="n">
         <v>3.691277653448019e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.40494791666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>1756650.287765395</v>
+        <v>2022352.40674382</v>
       </c>
     </row>
     <row r="13">
@@ -13827,28 +13827,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1403.735713422353</v>
+        <v>1618.416597684834</v>
       </c>
       <c r="AB13" t="n">
-        <v>1920.65313155345</v>
+        <v>2214.388988453557</v>
       </c>
       <c r="AC13" t="n">
-        <v>1737.348692331588</v>
+        <v>2003.050811310013</v>
       </c>
       <c r="AD13" t="n">
-        <v>1403735.713422353</v>
+        <v>1618416.597684834</v>
       </c>
       <c r="AE13" t="n">
-        <v>1920653.13155345</v>
+        <v>2214388.988453556</v>
       </c>
       <c r="AF13" t="n">
         <v>3.703091317094206e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>43.26822916666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>1737348.692331588</v>
+        <v>2003050.811310013</v>
       </c>
     </row>
     <row r="14">
@@ -13933,28 +13933,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1406.913301062548</v>
+        <v>1621.594185325029</v>
       </c>
       <c r="AB14" t="n">
-        <v>1925.000847148037</v>
+        <v>2218.736704048144</v>
       </c>
       <c r="AC14" t="n">
-        <v>1741.281468051885</v>
+        <v>2006.98358703031</v>
       </c>
       <c r="AD14" t="n">
-        <v>1406913.301062548</v>
+        <v>1621594.185325029</v>
       </c>
       <c r="AE14" t="n">
-        <v>1925000.847148037</v>
+        <v>2218736.704048144</v>
       </c>
       <c r="AF14" t="n">
         <v>3.70210684512369e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>44</v>
+        <v>43.28125</v>
       </c>
       <c r="AH14" t="n">
-        <v>1741281.468051885</v>
+        <v>2006983.58703031</v>
       </c>
     </row>
   </sheetData>
@@ -14230,28 +14230,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2372.84206020406</v>
+        <v>2686.892060621374</v>
       </c>
       <c r="AB2" t="n">
-        <v>3246.627189174963</v>
+        <v>3676.324254654146</v>
       </c>
       <c r="AC2" t="n">
-        <v>2936.77364690986</v>
+        <v>3325.461027543313</v>
       </c>
       <c r="AD2" t="n">
-        <v>2372842.06020406</v>
+        <v>2686892.060621374</v>
       </c>
       <c r="AE2" t="n">
-        <v>3246627.189174963</v>
+        <v>3676324.254654146</v>
       </c>
       <c r="AF2" t="n">
         <v>3.063622383030548e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.20182291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2936773.64690986</v>
+        <v>3325461.027543313</v>
       </c>
     </row>
     <row r="3">
@@ -14336,28 +14336,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1576.122882954604</v>
+        <v>1823.500524028696</v>
       </c>
       <c r="AB3" t="n">
-        <v>2156.520862092648</v>
+        <v>2494.993864141506</v>
       </c>
       <c r="AC3" t="n">
-        <v>1950.705537710565</v>
+        <v>2256.875151493721</v>
       </c>
       <c r="AD3" t="n">
-        <v>1576122.882954604</v>
+        <v>1823500.524028696</v>
       </c>
       <c r="AE3" t="n">
-        <v>2156520.862092648</v>
+        <v>2494993.864141506</v>
       </c>
       <c r="AF3" t="n">
         <v>3.962305403550977e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.41015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1950705.537710565</v>
+        <v>2256875.151493721</v>
       </c>
     </row>
     <row r="4">
@@ -14442,28 +14442,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1374.516008005015</v>
+        <v>1602.95565032718</v>
       </c>
       <c r="AB4" t="n">
-        <v>1880.673441519022</v>
+        <v>2193.234638189955</v>
       </c>
       <c r="AC4" t="n">
-        <v>1701.1846078022</v>
+        <v>1983.915402545253</v>
       </c>
       <c r="AD4" t="n">
-        <v>1374516.008005015</v>
+        <v>1602955.65032718</v>
       </c>
       <c r="AE4" t="n">
-        <v>1880673.441519022</v>
+        <v>2193234.638189955</v>
       </c>
       <c r="AF4" t="n">
         <v>4.282934886802546e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1701184.6078022</v>
+        <v>1983915.402545253</v>
       </c>
     </row>
     <row r="5">
@@ -14548,28 +14548,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1265.734768411958</v>
+        <v>1484.654668744917</v>
       </c>
       <c r="AB5" t="n">
-        <v>1731.834150418214</v>
+        <v>2031.370016118139</v>
       </c>
       <c r="AC5" t="n">
-        <v>1566.550329746795</v>
+        <v>1837.498912825547</v>
       </c>
       <c r="AD5" t="n">
-        <v>1265734.768411958</v>
+        <v>1484654.668744917</v>
       </c>
       <c r="AE5" t="n">
-        <v>1731834.150418214</v>
+        <v>2031370.016118139</v>
       </c>
       <c r="AF5" t="n">
         <v>4.452607713824669e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.86328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1566550.329746795</v>
+        <v>1837498.912825547</v>
       </c>
     </row>
     <row r="6">
@@ -14654,28 +14654,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1193.933286049256</v>
+        <v>1412.819020963434</v>
       </c>
       <c r="AB6" t="n">
-        <v>1633.592194591725</v>
+        <v>1933.081313658402</v>
       </c>
       <c r="AC6" t="n">
-        <v>1477.684448300936</v>
+        <v>1748.590746179507</v>
       </c>
       <c r="AD6" t="n">
-        <v>1193933.286049256</v>
+        <v>1412819.020963434</v>
       </c>
       <c r="AE6" t="n">
-        <v>1633592.194591725</v>
+        <v>1933081.313658402</v>
       </c>
       <c r="AF6" t="n">
         <v>4.553859129588322e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.8671875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1477684.448300936</v>
+        <v>1748590.746179507</v>
       </c>
     </row>
     <row r="7">
@@ -14760,28 +14760,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1187.471842811239</v>
+        <v>1406.357577725417</v>
       </c>
       <c r="AB7" t="n">
-        <v>1624.751362894713</v>
+        <v>1924.24048196139</v>
       </c>
       <c r="AC7" t="n">
-        <v>1469.687373172901</v>
+        <v>1740.593671051473</v>
       </c>
       <c r="AD7" t="n">
-        <v>1187471.842811239</v>
+        <v>1406357.577725417</v>
       </c>
       <c r="AE7" t="n">
-        <v>1624751.362894713</v>
+        <v>1924240.48196139</v>
       </c>
       <c r="AF7" t="n">
         <v>4.569507075660888e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.71744791666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1469687.373172901</v>
+        <v>1740593.671051473</v>
       </c>
     </row>
   </sheetData>
@@ -15057,28 +15057,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1774.473695130749</v>
+        <v>2056.433365352591</v>
       </c>
       <c r="AB2" t="n">
-        <v>2427.913193932294</v>
+        <v>2813.702853912556</v>
       </c>
       <c r="AC2" t="n">
-        <v>2196.196566300965</v>
+        <v>2545.167002591899</v>
       </c>
       <c r="AD2" t="n">
-        <v>1774473.695130749</v>
+        <v>2056433.365352591</v>
       </c>
       <c r="AE2" t="n">
-        <v>2427913.193932294</v>
+        <v>2813702.853912556</v>
       </c>
       <c r="AF2" t="n">
         <v>3.916857498331902e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.98828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2196196.566300965</v>
+        <v>2545167.002591899</v>
       </c>
     </row>
     <row r="3">
@@ -15163,28 +15163,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1282.972588459728</v>
+        <v>1517.927591838337</v>
       </c>
       <c r="AB3" t="n">
-        <v>1755.419696286522</v>
+        <v>2076.895497392324</v>
       </c>
       <c r="AC3" t="n">
-        <v>1587.884904219954</v>
+        <v>1878.679506062339</v>
       </c>
       <c r="AD3" t="n">
-        <v>1282972.588459728</v>
+        <v>1517927.591838337</v>
       </c>
       <c r="AE3" t="n">
-        <v>1755419.696286522</v>
+        <v>2076895.497392324</v>
       </c>
       <c r="AF3" t="n">
         <v>4.769865121331946e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.6171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1587884.904219954</v>
+        <v>1878679.506062339</v>
       </c>
     </row>
     <row r="4">
@@ -15269,28 +15269,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1128.82137680287</v>
+        <v>1345.008678862966</v>
       </c>
       <c r="AB4" t="n">
-        <v>1544.503207826118</v>
+        <v>1840.300212015384</v>
       </c>
       <c r="AC4" t="n">
-        <v>1397.097989395059</v>
+        <v>1664.664542658205</v>
       </c>
       <c r="AD4" t="n">
-        <v>1128821.37680287</v>
+        <v>1345008.678862966</v>
       </c>
       <c r="AE4" t="n">
-        <v>1544503.207826118</v>
+        <v>1840300.212015384</v>
       </c>
       <c r="AF4" t="n">
         <v>5.070947157589221e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.79166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1397097.989395059</v>
+        <v>1664664.542658205</v>
       </c>
     </row>
     <row r="5">
@@ -15375,28 +15375,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1114.494739908419</v>
+        <v>1330.58055674203</v>
       </c>
       <c r="AB5" t="n">
-        <v>1524.900871180518</v>
+        <v>1820.559018805695</v>
       </c>
       <c r="AC5" t="n">
-        <v>1379.366472246863</v>
+        <v>1646.80742122151</v>
       </c>
       <c r="AD5" t="n">
-        <v>1114494.739908419</v>
+        <v>1330580.556742029</v>
       </c>
       <c r="AE5" t="n">
-        <v>1524900.871180518</v>
+        <v>1820559.018805695</v>
       </c>
       <c r="AF5" t="n">
         <v>5.105137238183906e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.4921875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1379366.472246863</v>
+        <v>1646807.42122151</v>
       </c>
     </row>
   </sheetData>
@@ -28093,28 +28093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1424.817671159222</v>
+        <v>1685.214942789439</v>
       </c>
       <c r="AB2" t="n">
-        <v>1949.498396199367</v>
+        <v>2305.785431160678</v>
       </c>
       <c r="AC2" t="n">
-        <v>1763.441005404283</v>
+        <v>2085.724505800881</v>
       </c>
       <c r="AD2" t="n">
-        <v>1424817.671159222</v>
+        <v>1685214.942789439</v>
       </c>
       <c r="AE2" t="n">
-        <v>1949498.396199367</v>
+        <v>2305785.431160678</v>
       </c>
       <c r="AF2" t="n">
         <v>4.768270852476754e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.49609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1763441.005404283</v>
+        <v>2085724.50580088</v>
       </c>
     </row>
     <row r="3">
@@ -28199,28 +28199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1073.340645764364</v>
+        <v>1296.615532950458</v>
       </c>
       <c r="AB3" t="n">
-        <v>1468.592023982126</v>
+        <v>1774.08657482297</v>
       </c>
       <c r="AC3" t="n">
-        <v>1328.431662395122</v>
+        <v>1604.770242068012</v>
       </c>
       <c r="AD3" t="n">
-        <v>1073340.645764364</v>
+        <v>1296615.532950458</v>
       </c>
       <c r="AE3" t="n">
-        <v>1468592.023982126</v>
+        <v>1774086.57482297</v>
       </c>
       <c r="AF3" t="n">
         <v>5.579699688588452e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.71614583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1328431.662395122</v>
+        <v>1604770.242068012</v>
       </c>
     </row>
     <row r="4">
@@ -28305,28 +28305,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1060.477552292924</v>
+        <v>1274.413317672442</v>
       </c>
       <c r="AB4" t="n">
-        <v>1450.992172014869</v>
+        <v>1743.70852438698</v>
       </c>
       <c r="AC4" t="n">
-        <v>1312.511515598073</v>
+        <v>1577.291430129771</v>
       </c>
       <c r="AD4" t="n">
-        <v>1060477.552292924</v>
+        <v>1274413.317672442</v>
       </c>
       <c r="AE4" t="n">
-        <v>1450992.172014869</v>
+        <v>1743708.52438698</v>
       </c>
       <c r="AF4" t="n">
         <v>5.625149106738601e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.34505208333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1312511.515598073</v>
+        <v>1577291.430129771</v>
       </c>
     </row>
   </sheetData>
@@ -28602,28 +28602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>968.7333720955388</v>
+        <v>1205.691477596109</v>
       </c>
       <c r="AB2" t="n">
-        <v>1325.463737201232</v>
+        <v>1649.680271000931</v>
       </c>
       <c r="AC2" t="n">
-        <v>1198.963338422785</v>
+        <v>1492.237101277404</v>
       </c>
       <c r="AD2" t="n">
-        <v>968733.3720955388</v>
+        <v>1205691.477596109</v>
       </c>
       <c r="AE2" t="n">
-        <v>1325463.737201232</v>
+        <v>1649680.271000931</v>
       </c>
       <c r="AF2" t="n">
         <v>6.892040960838167e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.95182291666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1198963.338422785</v>
+        <v>1492237.101277404</v>
       </c>
     </row>
   </sheetData>
@@ -28899,28 +28899,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3083.164794728474</v>
+        <v>3448.57151596868</v>
       </c>
       <c r="AB2" t="n">
-        <v>4218.522091778698</v>
+        <v>4718.487688386384</v>
       </c>
       <c r="AC2" t="n">
-        <v>3815.912264072122</v>
+        <v>4268.161845845673</v>
       </c>
       <c r="AD2" t="n">
-        <v>3083164.794728474</v>
+        <v>3448571.51596868</v>
       </c>
       <c r="AE2" t="n">
-        <v>4218522.091778698</v>
+        <v>4718487.688386383</v>
       </c>
       <c r="AF2" t="n">
         <v>2.469521740963374e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>74</v>
+        <v>73.39192708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3815912.264072122</v>
+        <v>4268161.845845673</v>
       </c>
     </row>
     <row r="3">
@@ -29005,28 +29005,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1870.51152902732</v>
+        <v>2130.161793990699</v>
       </c>
       <c r="AB3" t="n">
-        <v>2559.316395159789</v>
+        <v>2914.581342643923</v>
       </c>
       <c r="AC3" t="n">
-        <v>2315.058830428859</v>
+        <v>2636.417789942593</v>
       </c>
       <c r="AD3" t="n">
-        <v>1870511.52902732</v>
+        <v>2130161.793990699</v>
       </c>
       <c r="AE3" t="n">
-        <v>2559316.395159789</v>
+        <v>2914581.342643923</v>
       </c>
       <c r="AF3" t="n">
         <v>3.400429271318635e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.30078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2315058.830428859</v>
+        <v>2636417.789942593</v>
       </c>
     </row>
     <row r="4">
@@ -29111,28 +29111,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1603.426237418641</v>
+        <v>1843.801466578805</v>
       </c>
       <c r="AB4" t="n">
-        <v>2193.87851620933</v>
+        <v>2522.770509352941</v>
       </c>
       <c r="AC4" t="n">
-        <v>1984.497829750147</v>
+        <v>2282.000832670944</v>
       </c>
       <c r="AD4" t="n">
-        <v>1603426.237418641</v>
+        <v>1843801.466578805</v>
       </c>
       <c r="AE4" t="n">
-        <v>2193878.516209329</v>
+        <v>2522770.509352941</v>
       </c>
       <c r="AF4" t="n">
         <v>3.739497863415737e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.46354166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1984497.829750147</v>
+        <v>2282000.832670944</v>
       </c>
     </row>
     <row r="5">
@@ -29217,28 +29217,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1478.797742257825</v>
+        <v>1709.552536225772</v>
       </c>
       <c r="AB5" t="n">
-        <v>2023.35631090914</v>
+        <v>2339.085200199113</v>
       </c>
       <c r="AC5" t="n">
-        <v>1830.250024394389</v>
+        <v>2115.846191618806</v>
       </c>
       <c r="AD5" t="n">
-        <v>1478797.742257825</v>
+        <v>1709552.536225772</v>
       </c>
       <c r="AE5" t="n">
-        <v>2023356.31090914</v>
+        <v>2339085.200199113</v>
       </c>
       <c r="AF5" t="n">
         <v>3.915434932549866e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.2890625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1830250.024394389</v>
+        <v>2115846.191618806</v>
       </c>
     </row>
     <row r="6">
@@ -29323,28 +29323,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1400.248729813053</v>
+        <v>1621.417254007563</v>
       </c>
       <c r="AB6" t="n">
-        <v>1915.882086744345</v>
+        <v>2218.494618813928</v>
       </c>
       <c r="AC6" t="n">
-        <v>1733.032989342861</v>
+        <v>2006.764606071079</v>
       </c>
       <c r="AD6" t="n">
-        <v>1400248.729813053</v>
+        <v>1621417.254007563</v>
       </c>
       <c r="AE6" t="n">
-        <v>1915882.086744345</v>
+        <v>2218494.618813928</v>
       </c>
       <c r="AF6" t="n">
         <v>4.024838837881689e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.03255208333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1733032.989342861</v>
+        <v>2006764.606071079</v>
       </c>
     </row>
     <row r="7">
@@ -29429,28 +29429,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1313.343750605092</v>
+        <v>1534.545429188526</v>
       </c>
       <c r="AB7" t="n">
-        <v>1796.974860214918</v>
+        <v>2099.632755582095</v>
       </c>
       <c r="AC7" t="n">
-        <v>1625.474101626063</v>
+        <v>1899.24675224242</v>
       </c>
       <c r="AD7" t="n">
-        <v>1313343.750605092</v>
+        <v>1534545.429188526</v>
       </c>
       <c r="AE7" t="n">
-        <v>1796974.860214918</v>
+        <v>2099632.755582095</v>
       </c>
       <c r="AF7" t="n">
         <v>4.127283207250928e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.91276041666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1625474.101626063</v>
+        <v>1899246.75224242</v>
       </c>
     </row>
     <row r="8">
@@ -29535,28 +29535,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1281.826796730848</v>
+        <v>1503.028475314283</v>
       </c>
       <c r="AB8" t="n">
-        <v>1753.851973494306</v>
+        <v>2056.509868861482</v>
       </c>
       <c r="AC8" t="n">
-        <v>1586.466802690713</v>
+        <v>1860.239453307071</v>
       </c>
       <c r="AD8" t="n">
-        <v>1281826.796730848</v>
+        <v>1503028.475314283</v>
       </c>
       <c r="AE8" t="n">
-        <v>1753851.973494306</v>
+        <v>2056509.868861482</v>
       </c>
       <c r="AF8" t="n">
         <v>4.152337536716231e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.64583333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1586466.802690713</v>
+        <v>1860239.453307071</v>
       </c>
     </row>
     <row r="9">
@@ -29641,28 +29641,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1272.995701251479</v>
+        <v>1484.645275480258</v>
       </c>
       <c r="AB9" t="n">
-        <v>1741.768879058997</v>
+        <v>2031.357163839031</v>
       </c>
       <c r="AC9" t="n">
-        <v>1575.536901829581</v>
+        <v>1837.487287149919</v>
       </c>
       <c r="AD9" t="n">
-        <v>1272995.701251479</v>
+        <v>1484645.275480258</v>
       </c>
       <c r="AE9" t="n">
-        <v>1741768.879058997</v>
+        <v>2031357.163839031</v>
       </c>
       <c r="AF9" t="n">
         <v>4.16291603137936e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>44</v>
+        <v>43.53515625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1575536.901829581</v>
+        <v>1837487.287149919</v>
       </c>
     </row>
   </sheetData>
@@ -29938,28 +29938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4331.520899401094</v>
+        <v>4769.553198827948</v>
       </c>
       <c r="AB2" t="n">
-        <v>5926.577987776316</v>
+        <v>6525.913104473358</v>
       </c>
       <c r="AC2" t="n">
-        <v>5360.953702627167</v>
+        <v>5903.089116958743</v>
       </c>
       <c r="AD2" t="n">
-        <v>4331520.899401094</v>
+        <v>4769553.198827948</v>
       </c>
       <c r="AE2" t="n">
-        <v>5926577.987776316</v>
+        <v>6525913.104473358</v>
       </c>
       <c r="AF2" t="n">
         <v>1.891363362166407e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>87</v>
+        <v>86.58203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>5360953.702627167</v>
+        <v>5903089.116958743</v>
       </c>
     </row>
     <row r="3">
@@ -30044,28 +30044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2294.046830259414</v>
+        <v>2586.06836321065</v>
       </c>
       <c r="AB3" t="n">
-        <v>3138.816079364485</v>
+        <v>3538.372823829181</v>
       </c>
       <c r="AC3" t="n">
-        <v>2839.251878105855</v>
+        <v>3200.675487660239</v>
       </c>
       <c r="AD3" t="n">
-        <v>2294046.830259413</v>
+        <v>2586068.36321065</v>
       </c>
       <c r="AE3" t="n">
-        <v>3138816.079364485</v>
+        <v>3538372.823829181</v>
       </c>
       <c r="AF3" t="n">
         <v>2.845974874258642e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.54557291666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2839251.878105855</v>
+        <v>3200675.487660239</v>
       </c>
     </row>
     <row r="4">
@@ -30150,28 +30150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1913.09618383464</v>
+        <v>2166.139247225113</v>
       </c>
       <c r="AB4" t="n">
-        <v>2617.582598569543</v>
+        <v>2963.807281372466</v>
       </c>
       <c r="AC4" t="n">
-        <v>2367.764189162316</v>
+        <v>2680.945674167923</v>
       </c>
       <c r="AD4" t="n">
-        <v>1913096.18383464</v>
+        <v>2166139.247225113</v>
       </c>
       <c r="AE4" t="n">
-        <v>2617582.598569543</v>
+        <v>2963807.281372466</v>
       </c>
       <c r="AF4" t="n">
         <v>3.208199005329213e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.04817708333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2367764.189162316</v>
+        <v>2680945.674167923</v>
       </c>
     </row>
     <row r="5">
@@ -30256,28 +30256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1742.550036152147</v>
+        <v>1976.154607375481</v>
       </c>
       <c r="AB5" t="n">
-        <v>2384.233835345335</v>
+        <v>2703.861915599429</v>
       </c>
       <c r="AC5" t="n">
-        <v>2156.685904393181</v>
+        <v>2445.809129268652</v>
       </c>
       <c r="AD5" t="n">
-        <v>1742550.036152147</v>
+        <v>1976154.607375481</v>
       </c>
       <c r="AE5" t="n">
-        <v>2384233.835345335</v>
+        <v>2703861.915599429</v>
       </c>
       <c r="AF5" t="n">
         <v>3.399624396818591e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.17057291666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2156685.904393181</v>
+        <v>2445809.129268652</v>
       </c>
     </row>
     <row r="6">
@@ -30362,28 +30362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1638.778716969722</v>
+        <v>1872.416442581979</v>
       </c>
       <c r="AB6" t="n">
-        <v>2242.249338372442</v>
+        <v>2561.92278192413</v>
       </c>
       <c r="AC6" t="n">
-        <v>2028.252208534888</v>
+        <v>2317.416467298498</v>
       </c>
       <c r="AD6" t="n">
-        <v>1638778.716969722</v>
+        <v>1872416.442581979</v>
       </c>
       <c r="AE6" t="n">
-        <v>2242249.338372442</v>
+        <v>2561922.781924129</v>
       </c>
       <c r="AF6" t="n">
         <v>3.518101873022924e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.54947916666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2028252.208534888</v>
+        <v>2317416.467298497</v>
       </c>
     </row>
     <row r="7">
@@ -30468,28 +30468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1569.048856450738</v>
+        <v>1792.882933462331</v>
       </c>
       <c r="AB7" t="n">
-        <v>2146.841866946035</v>
+        <v>2453.101525975841</v>
       </c>
       <c r="AC7" t="n">
-        <v>1941.950292276189</v>
+        <v>2218.980959286322</v>
       </c>
       <c r="AD7" t="n">
-        <v>1569048.856450738</v>
+        <v>1792882.933462331</v>
       </c>
       <c r="AE7" t="n">
-        <v>2146841.866946035</v>
+        <v>2453101.525975841</v>
       </c>
       <c r="AF7" t="n">
         <v>3.600105391584734e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.48828125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1941950.292276189</v>
+        <v>2218980.959286322</v>
       </c>
     </row>
     <row r="8">
@@ -30574,28 +30574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1510.447632767296</v>
+        <v>1734.349029586593</v>
       </c>
       <c r="AB8" t="n">
-        <v>2066.661087398821</v>
+        <v>2373.012856359469</v>
       </c>
       <c r="AC8" t="n">
-        <v>1869.421853794531</v>
+        <v>2146.535839892982</v>
       </c>
       <c r="AD8" t="n">
-        <v>1510447.632767295</v>
+        <v>1734349.029586593</v>
       </c>
       <c r="AE8" t="n">
-        <v>2066661.087398821</v>
+        <v>2373012.856359469</v>
       </c>
       <c r="AF8" t="n">
         <v>3.662236891844756e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.72005208333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1869421.853794531</v>
+        <v>2146535.839892983</v>
       </c>
     </row>
     <row r="9">
@@ -30680,28 +30680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1475.920572301839</v>
+        <v>1699.720483894652</v>
       </c>
       <c r="AB9" t="n">
-        <v>2019.41964004358</v>
+        <v>2325.632552440139</v>
       </c>
       <c r="AC9" t="n">
-        <v>1826.689063871086</v>
+        <v>2103.677445681039</v>
       </c>
       <c r="AD9" t="n">
-        <v>1475920.572301839</v>
+        <v>1699720.483894652</v>
       </c>
       <c r="AE9" t="n">
-        <v>2019419.64004358</v>
+        <v>2325632.552440139</v>
       </c>
       <c r="AF9" t="n">
         <v>3.697704671345416e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.29036458333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1826689.063871086</v>
+        <v>2103677.445681039</v>
       </c>
     </row>
     <row r="10">
@@ -30786,28 +30786,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1428.670748420755</v>
+        <v>1652.537979821272</v>
       </c>
       <c r="AB10" t="n">
-        <v>1954.770346494369</v>
+        <v>2261.075368821769</v>
       </c>
       <c r="AC10" t="n">
-        <v>1768.209808162358</v>
+        <v>2045.28150906063</v>
       </c>
       <c r="AD10" t="n">
-        <v>1428670.748420755</v>
+        <v>1652537.979821272</v>
       </c>
       <c r="AE10" t="n">
-        <v>1954770.346494369</v>
+        <v>2261075.368821769</v>
       </c>
       <c r="AF10" t="n">
         <v>3.738203341555389e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>43.80859375</v>
       </c>
       <c r="AH10" t="n">
-        <v>1768209.808162358</v>
+        <v>2045281.50906063</v>
       </c>
     </row>
     <row r="11">
@@ -30892,28 +30892,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1394.824930495934</v>
+        <v>1608.922678714567</v>
       </c>
       <c r="AB11" t="n">
-        <v>1908.461005237524</v>
+        <v>2201.398989676291</v>
       </c>
       <c r="AC11" t="n">
-        <v>1726.320165439498</v>
+        <v>1991.300559784472</v>
       </c>
       <c r="AD11" t="n">
-        <v>1394824.930495934</v>
+        <v>1608922.678714567</v>
       </c>
       <c r="AE11" t="n">
-        <v>1908461.005237524</v>
+        <v>2201398.989676292</v>
       </c>
       <c r="AF11" t="n">
         <v>3.767130963133942e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.47005208333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1726320.165439498</v>
+        <v>1991300.559784472</v>
       </c>
     </row>
     <row r="12">
@@ -30998,28 +30998,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1378.228474417982</v>
+        <v>1592.326222636615</v>
       </c>
       <c r="AB12" t="n">
-        <v>1885.753001847703</v>
+        <v>2178.690986286471</v>
       </c>
       <c r="AC12" t="n">
-        <v>1705.779382022319</v>
+        <v>1970.759776367294</v>
       </c>
       <c r="AD12" t="n">
-        <v>1378228.474417982</v>
+        <v>1592326.222636615</v>
       </c>
       <c r="AE12" t="n">
-        <v>1885753.001847703</v>
+        <v>2178690.986286471</v>
       </c>
       <c r="AF12" t="n">
         <v>3.776941200017103e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.359375</v>
       </c>
       <c r="AH12" t="n">
-        <v>1705779.382022319</v>
+        <v>1970759.776367294</v>
       </c>
     </row>
     <row r="13">
@@ -31104,28 +31104,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1380.646925875413</v>
+        <v>1594.744674094047</v>
       </c>
       <c r="AB13" t="n">
-        <v>1889.06203382631</v>
+        <v>2182.000018265077</v>
       </c>
       <c r="AC13" t="n">
-        <v>1708.772604633142</v>
+        <v>1973.752998978117</v>
       </c>
       <c r="AD13" t="n">
-        <v>1380646.925875413</v>
+        <v>1594744.674094046</v>
       </c>
       <c r="AE13" t="n">
-        <v>1889062.033826309</v>
+        <v>2182000.018265077</v>
       </c>
       <c r="AF13" t="n">
         <v>3.78121745712002e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>43.31380208333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>1708772.604633142</v>
+        <v>1973752.998978117</v>
       </c>
     </row>
   </sheetData>
@@ -31401,28 +31401,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>956.9702096795592</v>
+        <v>1209.698455439857</v>
       </c>
       <c r="AB2" t="n">
-        <v>1309.368859429589</v>
+        <v>1655.162794862133</v>
       </c>
       <c r="AC2" t="n">
-        <v>1184.404533196365</v>
+        <v>1497.196380756063</v>
       </c>
       <c r="AD2" t="n">
-        <v>956970.2096795591</v>
+        <v>1209698.455439857</v>
       </c>
       <c r="AE2" t="n">
-        <v>1309368.859429589</v>
+        <v>1655162.794862133</v>
       </c>
       <c r="AF2" t="n">
         <v>7.509437512423865e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.91015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1184404.533196365</v>
+        <v>1497196.380756063</v>
       </c>
     </row>
   </sheetData>
@@ -31698,28 +31698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1966.643646814668</v>
+        <v>2259.244339845355</v>
       </c>
       <c r="AB2" t="n">
-        <v>2690.848599766157</v>
+        <v>3091.197776602451</v>
       </c>
       <c r="AC2" t="n">
-        <v>2434.037786034204</v>
+        <v>2796.178199326725</v>
       </c>
       <c r="AD2" t="n">
-        <v>1966643.646814668</v>
+        <v>2259244.339845355</v>
       </c>
       <c r="AE2" t="n">
-        <v>2690848.599766158</v>
+        <v>3091197.776602451</v>
       </c>
       <c r="AF2" t="n">
         <v>3.59272767023673e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.28645833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2434037.786034204</v>
+        <v>2796178.199326725</v>
       </c>
     </row>
     <row r="3">
@@ -31804,28 +31804,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1381.207899673343</v>
+        <v>1617.251430767425</v>
       </c>
       <c r="AB3" t="n">
-        <v>1889.829582925053</v>
+        <v>2212.79475567362</v>
       </c>
       <c r="AC3" t="n">
-        <v>1709.466899923164</v>
+        <v>2001.608729869075</v>
       </c>
       <c r="AD3" t="n">
-        <v>1381207.899673343</v>
+        <v>1617251.430767425</v>
       </c>
       <c r="AE3" t="n">
-        <v>1889829.582925053</v>
+        <v>2212794.75567362</v>
       </c>
       <c r="AF3" t="n">
         <v>4.463046735459369e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.52864583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1709466.899923164</v>
+        <v>2001608.729869075</v>
       </c>
     </row>
     <row r="4">
@@ -31910,28 +31910,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1216.580356093035</v>
+        <v>1433.670351658384</v>
       </c>
       <c r="AB4" t="n">
-        <v>1664.57891494384</v>
+        <v>1961.61102421102</v>
       </c>
       <c r="AC4" t="n">
-        <v>1505.713839552779</v>
+        <v>1774.397621198684</v>
       </c>
       <c r="AD4" t="n">
-        <v>1216580.356093035</v>
+        <v>1433670.351658384</v>
       </c>
       <c r="AE4" t="n">
-        <v>1664578.91494384</v>
+        <v>1961611.02421102</v>
       </c>
       <c r="AF4" t="n">
         <v>4.771118392338637e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.39713541666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1505713.839552779</v>
+        <v>1774397.621198684</v>
       </c>
     </row>
     <row r="5">
@@ -32016,28 +32016,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1142.117293078453</v>
+        <v>1359.173123225021</v>
       </c>
       <c r="AB5" t="n">
-        <v>1562.695267048799</v>
+        <v>1859.680629682731</v>
       </c>
       <c r="AC5" t="n">
-        <v>1413.553824018243</v>
+        <v>1682.195320463968</v>
       </c>
       <c r="AD5" t="n">
-        <v>1142117.293078453</v>
+        <v>1359173.123225021</v>
       </c>
       <c r="AE5" t="n">
-        <v>1562695.267048799</v>
+        <v>1859680.629682731</v>
       </c>
       <c r="AF5" t="n">
         <v>4.895544741877348e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.24479166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1413553.824018243</v>
+        <v>1682195.320463968</v>
       </c>
     </row>
     <row r="6">
@@ -32122,28 +32122,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1146.784940570832</v>
+        <v>1363.8407707174</v>
       </c>
       <c r="AB6" t="n">
-        <v>1569.081748269945</v>
+        <v>1866.067110903878</v>
       </c>
       <c r="AC6" t="n">
-        <v>1419.330788435126</v>
+        <v>1687.972284880851</v>
       </c>
       <c r="AD6" t="n">
-        <v>1146784.940570832</v>
+        <v>1363840.7707174</v>
       </c>
       <c r="AE6" t="n">
-        <v>1569081.748269945</v>
+        <v>1866067.110903878</v>
       </c>
       <c r="AF6" t="n">
         <v>4.895877432651515e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.23828125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1419330.788435126</v>
+        <v>1687972.284880851</v>
       </c>
     </row>
   </sheetData>
@@ -32419,28 +32419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2589.074834397744</v>
+        <v>2923.42968177946</v>
       </c>
       <c r="AB2" t="n">
-        <v>3542.486410343512</v>
+        <v>3999.965463226016</v>
       </c>
       <c r="AC2" t="n">
-        <v>3204.396479251096</v>
+        <v>3618.21437340236</v>
       </c>
       <c r="AD2" t="n">
-        <v>2589074.834397744</v>
+        <v>2923429.68177946</v>
       </c>
       <c r="AE2" t="n">
-        <v>3542486.410343512</v>
+        <v>3999965.463226016</v>
       </c>
       <c r="AF2" t="n">
         <v>2.843909035502984e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>3204396.479251096</v>
+        <v>3618214.37340236</v>
       </c>
     </row>
     <row r="3">
@@ -32525,28 +32525,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1673.043917580382</v>
+        <v>1921.371079031074</v>
       </c>
       <c r="AB3" t="n">
-        <v>2289.13249752191</v>
+        <v>2628.904675239915</v>
       </c>
       <c r="AC3" t="n">
-        <v>2070.660904776057</v>
+        <v>2378.005702725902</v>
       </c>
       <c r="AD3" t="n">
-        <v>1673043.917580382</v>
+        <v>1921371.079031074</v>
       </c>
       <c r="AE3" t="n">
-        <v>2289132.49752191</v>
+        <v>2628904.675239915</v>
       </c>
       <c r="AF3" t="n">
         <v>3.755441129486598e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.35416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2070660.904776057</v>
+        <v>2378005.702725902</v>
       </c>
     </row>
     <row r="4">
@@ -32631,28 +32631,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1455.539854482657</v>
+        <v>1684.757120035105</v>
       </c>
       <c r="AB4" t="n">
-        <v>1991.533842789563</v>
+        <v>2305.159017870483</v>
       </c>
       <c r="AC4" t="n">
-        <v>1801.46464796903</v>
+        <v>2085.157876515925</v>
       </c>
       <c r="AD4" t="n">
-        <v>1455539.854482657</v>
+        <v>1684757.120035105</v>
       </c>
       <c r="AE4" t="n">
-        <v>1991533.842789563</v>
+        <v>2305159.017870483</v>
       </c>
       <c r="AF4" t="n">
         <v>4.081898187520377e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.24609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1801464.64796903</v>
+        <v>2085157.876515925</v>
       </c>
     </row>
     <row r="5">
@@ -32737,28 +32737,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1341.911086981945</v>
+        <v>1561.57340458527</v>
       </c>
       <c r="AB5" t="n">
-        <v>1836.061950147663</v>
+        <v>2136.613623910041</v>
       </c>
       <c r="AC5" t="n">
-        <v>1660.830774554701</v>
+        <v>1932.698218400121</v>
       </c>
       <c r="AD5" t="n">
-        <v>1341911.086981945</v>
+        <v>1561573.40458527</v>
       </c>
       <c r="AE5" t="n">
-        <v>1836061.950147663</v>
+        <v>2136613.623910041</v>
       </c>
       <c r="AF5" t="n">
         <v>4.254902653846808e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.32552083333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1660830.774554701</v>
+        <v>1932698.218400121</v>
       </c>
     </row>
     <row r="6">
@@ -32843,28 +32843,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1263.503403051918</v>
+        <v>1473.644938124901</v>
       </c>
       <c r="AB6" t="n">
-        <v>1728.781097891715</v>
+        <v>2016.306016968799</v>
       </c>
       <c r="AC6" t="n">
-        <v>1563.788656268439</v>
+        <v>1823.872600612564</v>
       </c>
       <c r="AD6" t="n">
-        <v>1263503.403051917</v>
+        <v>1473644.938124901</v>
       </c>
       <c r="AE6" t="n">
-        <v>1728781.097891715</v>
+        <v>2016306.016968799</v>
       </c>
       <c r="AF6" t="n">
         <v>4.365400369497081e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.1796875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1563788.656268439</v>
+        <v>1823872.600612564</v>
       </c>
     </row>
     <row r="7">
@@ -32949,28 +32949,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1219.890276131589</v>
+        <v>1439.585748123838</v>
       </c>
       <c r="AB7" t="n">
-        <v>1669.107693563956</v>
+        <v>1969.704730623928</v>
       </c>
       <c r="AC7" t="n">
-        <v>1509.810397897572</v>
+        <v>1781.718875631132</v>
       </c>
       <c r="AD7" t="n">
-        <v>1219890.276131589</v>
+        <v>1439585.748123838</v>
       </c>
       <c r="AE7" t="n">
-        <v>1669107.693563956</v>
+        <v>1969704.730623928</v>
       </c>
       <c r="AF7" t="n">
         <v>4.404207878210716e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>44</v>
+        <v>43.7890625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1509810.397897572</v>
+        <v>1781718.875631132</v>
       </c>
     </row>
     <row r="8">
@@ -33055,28 +33055,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1220.987955641888</v>
+        <v>1440.683427634137</v>
       </c>
       <c r="AB8" t="n">
-        <v>1670.60958709615</v>
+        <v>1971.206624156123</v>
       </c>
       <c r="AC8" t="n">
-        <v>1511.168952818975</v>
+        <v>1783.077430552534</v>
       </c>
       <c r="AD8" t="n">
-        <v>1220987.955641889</v>
+        <v>1440683.427634137</v>
       </c>
       <c r="AE8" t="n">
-        <v>1670609.58709615</v>
+        <v>1971206.624156123</v>
       </c>
       <c r="AF8" t="n">
         <v>4.410725169750409e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>43.72395833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1511168.952818975</v>
+        <v>1783077.430552534</v>
       </c>
     </row>
   </sheetData>
